--- a/Misc/Data/mBasic2.xlsx
+++ b/Misc/Data/mBasic2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -137,12 +137,6 @@
     <t>GJ input / GJ output</t>
   </si>
   <si>
-    <t>Load/l</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>Load/Load</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>CO2Cap</t>
+  </si>
+  <si>
+    <t>Load/c</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
 </sst>
 </file>
@@ -647,13 +647,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>10.335570469798657</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,15 +684,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
